--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 7 (46, 28, 13, 50, 51)/MDD 0 (41, 8, 15, 16, 33)/ANN_128nodes_Uniform0.05Virtual_Control(46, 28, 13, 50, 51)_MDD(41, 8, 15, 16, 33)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 7 (46, 28, 13, 50, 51)/MDD 0 (41, 8, 15, 16, 33)/ANN_128nodes_Uniform0.05Virtual_Control(46, 28, 13, 50, 51)_MDD(41, 8, 15, 16, 33)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.001475225641242728</v>
+        <v>0.003489333874770055</v>
       </c>
       <c r="E2">
-        <v>0.001475225641242728</v>
+        <v>0.003489333874770055</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.6113630433279321</v>
+        <v>0.9962159613032793</v>
       </c>
       <c r="E3">
-        <v>0.6113630433279321</v>
+        <v>0.9962159613032793</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9985560838400567</v>
+        <v>0.9995512664259458</v>
       </c>
       <c r="E4">
-        <v>0.9985560838400567</v>
+        <v>0.9995512664259458</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>7.596500470002931E-18</v>
+        <v>5.357241081620243E-28</v>
       </c>
       <c r="E5">
-        <v>7.596500470002931E-18</v>
+        <v>5.357241081620243E-28</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>8.464526886282423E-10</v>
+        <v>2.578622050009275E-08</v>
       </c>
       <c r="E6">
-        <v>8.464526886282423E-10</v>
+        <v>2.578622050009275E-08</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.973928799398935E-06</v>
+        <v>2.660187187741686E-05</v>
       </c>
       <c r="E7">
-        <v>0.9999950260712006</v>
+        <v>0.9999733981281226</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.999999960183688</v>
+        <v>0.9999822589184943</v>
       </c>
       <c r="E8">
-        <v>3.98163120252093E-08</v>
+        <v>1.774108150565112E-05</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -551,13 +551,13 @@
         <v>13</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0.04146536897600357</v>
+        <v>0.9195485162839092</v>
       </c>
       <c r="E9">
-        <v>0.9585346310239964</v>
+        <v>0.08045148371609079</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.9997935833435928</v>
+        <v>0.9999999992022208</v>
       </c>
       <c r="E10">
-        <v>0.0002064166564071934</v>
+        <v>7.977791760538366E-10</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9999999999999838</v>
+        <v>0.9999999999992655</v>
       </c>
       <c r="E11">
-        <v>1.620925615952729E-14</v>
+        <v>7.345235530920036E-13</v>
       </c>
       <c r="F11">
-        <v>2.288138628005981</v>
+        <v>2.390795946121216</v>
       </c>
       <c r="G11">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
